--- a/research/Monte_carlo/output/mean_median.xlsx
+++ b/research/Monte_carlo/output/mean_median.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>pipe_length</t>
+          <t>length_pipe</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.948728161935644e-07</v>
+        <v>6.129859035316447e-07</v>
       </c>
       <c r="C2" t="n">
         <v>0.006059585534500237</v>
@@ -567,7 +567,7 @@
         <v>-12.2442948083055</v>
       </c>
       <c r="G2" t="n">
-        <v>2.234360796388206</v>
+        <v>3.468721592776412</v>
       </c>
       <c r="H2" t="n">
         <v>6.90979573</v>
@@ -579,7 +579,7 @@
         <v>3.468721592776412</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01960000038</v>
+        <v>0.0196</v>
       </c>
       <c r="L2" t="n">
         <v>0.25</v>
